--- a/data/trans_bre/P1413-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1413-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>10.01639693267665</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1.105524414167526</v>
+        <v>1.105524414167522</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1690065660100075</v>
@@ -649,7 +649,7 @@
         <v>1.034355217294004</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1063570840368938</v>
+        <v>0.1063570840368934</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.580686190616625</v>
+        <v>-3.202165630151406</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>10.25250125136215</v>
+        <v>10.52877344980275</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.332941852957478</v>
+        <v>3.963842384532337</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.575261241590558</v>
+        <v>-2.525002649659537</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.302138932669153</v>
+        <v>-0.216565416747088</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>1.081549641143135</v>
+        <v>1.318914429739118</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.338925044842927</v>
+        <v>0.2984897648673087</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2733725919467966</v>
+        <v>-0.2119906345641104</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.764938185324811</v>
+        <v>8.203266498571695</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>22.25635749116899</v>
+        <v>22.34522534596153</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.07983893429311</v>
+        <v>15.8912615243821</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.937380974753754</v>
+        <v>5.324057055448758</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.8714472081620852</v>
+        <v>0.9599527340224238</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5.316585356342647</v>
+        <v>5.361176212411163</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.34776766352162</v>
+        <v>2.191296833519149</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.5805910717191636</v>
+        <v>0.6494645959878502</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>6.132254408544712</v>
+        <v>6.006163489523001</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.154810875275145</v>
+        <v>2.779704571729149</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.4410557031943333</v>
+        <v>-0.4605112894393489</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9.470359780551883</v>
+        <v>8.994909113226157</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2457804491275297</v>
+        <v>0.2409283467977883</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3893083812642659</v>
+        <v>0.3691269721297949</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1059009357095548</v>
+        <v>-0.08459192996416547</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.5083280756788928</v>
+        <v>0.4550310610142609</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>17.24247922578075</v>
+        <v>16.90721945085656</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.57812020997072</v>
+        <v>10.10032082248868</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.299253417273196</v>
+        <v>5.374760540549657</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>19.23654995351414</v>
+        <v>19.38381751339312</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9323304856064859</v>
+        <v>0.9035662402462136</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.611169557102225</v>
+        <v>2.480782787235817</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.550676476221135</v>
+        <v>1.689281910857878</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.554021342540604</v>
+        <v>1.551411982650094</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>7.276062758263942</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9.085426002821908</v>
+        <v>9.08542600282192</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6950659699696695</v>
@@ -849,7 +849,7 @@
         <v>0.9656752490946585</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.4672232701487266</v>
+        <v>0.4672232701487273</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9156569852100883</v>
+        <v>0.8660379526753708</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.789529571767729</v>
+        <v>2.785498780962791</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.353650141311258</v>
+        <v>2.23167367238192</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.967851273121666</v>
+        <v>3.689070633106464</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.06251758658603859</v>
+        <v>0.03623442294427613</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2228770602633915</v>
+        <v>0.2830357902216616</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2215689994322025</v>
+        <v>0.2102233525894713</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1743580834347957</v>
+        <v>0.1607510070635494</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.18569819303088</v>
+        <v>10.46647668729758</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>12.53948387393383</v>
+        <v>12.91161499742689</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.2597350014717</v>
+        <v>12.44250747056695</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14.6725711776498</v>
+        <v>14.7682508887415</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.684677536517244</v>
+        <v>1.685711183958873</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.206330538342665</v>
+        <v>2.389661725290516</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.088872622444735</v>
+        <v>2.224024694547203</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.901547200082726</v>
+        <v>0.8766539151875007</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>10.21619006733289</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15.92938598805959</v>
+        <v>15.9293859880596</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.2943426020906295</v>
@@ -949,7 +949,7 @@
         <v>1.271087683649437</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>1.152754965145193</v>
+        <v>1.152754965145194</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-11.51867407949024</v>
+        <v>-11.24927895840616</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.061242471922506</v>
+        <v>6.002012677202347</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5.702603797019201</v>
+        <v>4.946554155385178</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10.35360737863472</v>
+        <v>9.915520570246564</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4970208285579556</v>
+        <v>-0.5014134842387497</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.459040262752613</v>
+        <v>0.4280263915646489</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5390773080284582</v>
+        <v>0.4810087923758551</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.5943336259349449</v>
+        <v>0.5324200080570463</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-0.223890901452002</v>
+        <v>-0.5842752708711766</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>17.05579030591025</v>
+        <v>16.55335654109483</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>15.70706123150196</v>
+        <v>15.39879975118011</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>21.53074895216953</v>
+        <v>21.48534107742188</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.01326461296571505</v>
+        <v>-0.03291063364576607</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.218884456713294</v>
+        <v>2.179882999974796</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.550207818947543</v>
+        <v>2.549960916978362</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.075359566871416</v>
+        <v>1.98125713707444</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>5.019412131393554</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7.214044621583435</v>
+        <v>7.214044621583426</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>1.452446453555924</v>
@@ -1049,7 +1049,7 @@
         <v>0.5514269741305799</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.4759564785003395</v>
+        <v>0.4759564785003388</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.571381957378561</v>
+        <v>2.611911353021914</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.528349555239927</v>
+        <v>9.365452860391599</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.513791536360898</v>
+        <v>-0.7090070055809716</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.060519775570665</v>
+        <v>2.016787206181553</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.290872268606897</v>
+        <v>0.2787634648752383</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4586961307255739</v>
+        <v>0.4572668873796424</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.05047876869584392</v>
+        <v>-0.1029362351627298</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.05501332373470728</v>
+        <v>0.1130084961851923</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.84449239766175</v>
+        <v>13.9096673806469</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>24.64584570148114</v>
+        <v>26.00267750578331</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.66203029447566</v>
+        <v>11.14146059751957</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12.07994536329437</v>
+        <v>13.11735510608817</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3.864922048349711</v>
+        <v>3.949384263273492</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.288552722410911</v>
+        <v>2.412322079514225</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.743562559509455</v>
+        <v>1.736862180694924</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.004577819669619</v>
+        <v>1.126854573720646</v>
       </c>
     </row>
     <row r="19">
@@ -1149,7 +1149,7 @@
         <v>0.2515043874233268</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.4159093360921384</v>
+        <v>0.4159093360921381</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-4.063123624331431</v>
+        <v>-3.505281628582369</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.585879351286509</v>
+        <v>-2.54054100730588</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-3.485955957789085</v>
+        <v>-3.107973902379526</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3.769230481900792</v>
+        <v>4.179654589183978</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2580157716100108</v>
+        <v>-0.224376548144119</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1728798192206554</v>
+        <v>-0.1506204640091225</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3055330344559966</v>
+        <v>-0.2889253868015159</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1318462514461744</v>
+        <v>0.156360173542065</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>7.77075533295626</v>
+        <v>8.021134018891782</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>9.917737952871308</v>
+        <v>10.47929420701248</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7.086361389070521</v>
+        <v>7.688853899069328</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>16.55804102092625</v>
+        <v>16.90334733122348</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7550723314665602</v>
+        <v>0.8025745589991841</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8696401725122404</v>
+        <v>0.9779722084888929</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.036889439567569</v>
+        <v>1.140114997280765</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.7432935539193549</v>
+        <v>0.7581562924808619</v>
       </c>
     </row>
     <row r="22">
@@ -1249,7 +1249,7 @@
         <v>0.7264419616839828</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.6690945391267903</v>
+        <v>0.6690945391267904</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.9598946809932</v>
+        <v>-4.81820285903642</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.121317569554382</v>
+        <v>5.529809888751528</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.200156644410142</v>
+        <v>3.240081447928932</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>12.46377683905707</v>
+        <v>12.8196765718616</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2898957102165526</v>
+        <v>-0.2837154366617314</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5006906893160524</v>
+        <v>0.4366205046956994</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.276740396391695</v>
+        <v>0.2854120916991493</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.4253044826197837</v>
+        <v>0.4387515708451146</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.976655298966191</v>
+        <v>2.803244102323622</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>14.33826570203084</v>
+        <v>13.6436949307242</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.57008812390805</v>
+        <v>10.66492356080171</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>22.50860357802626</v>
+        <v>22.48646438660484</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.2194994628002212</v>
+        <v>0.2187990858723019</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.643707697844089</v>
+        <v>1.558769717515944</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.337034888571928</v>
+        <v>1.342712186341569</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.9553226158636589</v>
+        <v>0.9553534713181601</v>
       </c>
     </row>
     <row r="25">
@@ -1349,7 +1349,7 @@
         <v>0.4679834903381818</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.6017538452195086</v>
+        <v>0.6017538452195089</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-1.092743255817242</v>
+        <v>-1.011141205463495</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>3.67953455679805</v>
+        <v>3.932571964082286</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.4601861412955718</v>
+        <v>0.8258202412535496</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6.801700885124665</v>
+        <v>6.553797289233724</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.04740989391920565</v>
+        <v>-0.04223632369598498</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3842547679030849</v>
+        <v>0.3871950135704429</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04923882943680223</v>
+        <v>0.07365459249941111</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.3366389753481511</v>
+        <v>0.3241560284508214</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>7.664296948212759</v>
+        <v>7.472790707503063</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>10.30398023077976</v>
+        <v>10.22176873392613</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7.21273620509997</v>
+        <v>7.440355564498365</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>14.18127022838771</v>
+        <v>14.06196500579024</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4148553018056414</v>
+        <v>0.3980337253007059</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.511685270040469</v>
+        <v>1.530407403430019</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.010440217915425</v>
+        <v>1.019291042846178</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.9159800253527405</v>
+        <v>0.8882660942363014</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>5.726382048783414</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>12.04950338476415</v>
+        <v>12.04950338476416</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1890013094431436</v>
@@ -1449,7 +1449,7 @@
         <v>0.7004742986062025</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.6494402185610489</v>
+        <v>0.6494402185610495</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.165178514517089</v>
+        <v>1.319718412837851</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>7.505943626929014</v>
+        <v>7.583686778779539</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4.217243374301023</v>
+        <v>4.09676521296248</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>10.1941215910233</v>
+        <v>10.20903350577288</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.06827278440146463</v>
+        <v>0.07628980131963066</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7597989443638199</v>
+        <v>0.7840553867404156</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4708503981096017</v>
+        <v>0.4713236300573193</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.5202421642192735</v>
+        <v>0.5186464716292494</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.913521062609661</v>
+        <v>4.860513042346437</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>10.73732031394722</v>
+        <v>10.6453109089885</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.227857908861816</v>
+        <v>7.293177178726716</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>14.05175269506516</v>
+        <v>13.97583316885039</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3249365131953034</v>
+        <v>0.3182537822233832</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1.282746707660768</v>
+        <v>1.28372196658863</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.967320858115697</v>
+        <v>0.9632705383882995</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.8059964063797732</v>
+        <v>0.7925161640518412</v>
       </c>
     </row>
     <row r="31">
